--- a/FileOutput/HybridResults.xlsx
+++ b/FileOutput/HybridResults.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="141">
   <si>
     <t>TCID</t>
   </si>
@@ -454,7 +454,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="208" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -617,1093 +617,19 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="17"/>
+      <color indexed="12"/>
       <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="17"/>
+      <color indexed="12"/>
       <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
+      <color indexed="12"/>
       <b val="true"/>
     </font>
     <font>
@@ -1754,7 +680,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="208">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1784,185 +710,6 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="148" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="149" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="156" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="157" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="163" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="164" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="165" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="166" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="171" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="173" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="174" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="178" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="179" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="180" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="181" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="182" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="183" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="186" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="187" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="188" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="189" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="190" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="191" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="194" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="195" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="196" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="197" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="198" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="201" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="202" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="203" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="206" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2291,10 +1038,10 @@
         <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s" s="82">
-        <v>139</v>
+        <v>15</v>
+      </c>
+      <c r="D3" t="s" s="25">
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -2305,10 +1052,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s" s="144">
-        <v>139</v>
+        <v>15</v>
+      </c>
+      <c r="D4" t="s" s="26">
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -2319,10 +1066,10 @@
         <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s" s="206">
-        <v>139</v>
+        <v>15</v>
+      </c>
+      <c r="D5" t="s" s="27">
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -2335,7 +1082,7 @@
       <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s" s="207">
+      <c r="D6" t="s" s="28">
         <v>140</v>
       </c>
     </row>
@@ -2641,9 +1388,7 @@
       <c r="E2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F2" t="s" s="25">
-        <v>139</v>
-      </c>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
@@ -2661,9 +1406,7 @@
       <c r="E3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F3" t="s" s="27">
-        <v>139</v>
-      </c>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
@@ -2681,9 +1424,7 @@
       <c r="E4" s="4">
         <v>10</v>
       </c>
-      <c r="F4" t="s" s="29">
-        <v>139</v>
-      </c>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
@@ -2701,9 +1442,7 @@
       <c r="E5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F5" t="s" s="31">
-        <v>139</v>
-      </c>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
@@ -2721,9 +1460,7 @@
       <c r="E6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F6" t="s" s="33">
-        <v>139</v>
-      </c>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
@@ -2741,9 +1478,7 @@
       <c r="E7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F7" t="s" s="35">
-        <v>139</v>
-      </c>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
@@ -2761,9 +1496,7 @@
       <c r="E8" s="4">
         <v>10</v>
       </c>
-      <c r="F8" t="s" s="37">
-        <v>139</v>
-      </c>
+      <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
@@ -2781,9 +1514,7 @@
       <c r="E9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F9" t="s" s="39">
-        <v>139</v>
-      </c>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
@@ -2801,9 +1532,7 @@
       <c r="E10" s="4">
         <v>10</v>
       </c>
-      <c r="F10" t="s" s="41">
-        <v>139</v>
-      </c>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
@@ -2821,9 +1550,7 @@
       <c r="E11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F11" t="s" s="43">
-        <v>139</v>
-      </c>
+      <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
@@ -2841,9 +1568,7 @@
       <c r="E12" s="4">
         <v>10</v>
       </c>
-      <c r="F12" t="s" s="45">
-        <v>139</v>
-      </c>
+      <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
@@ -2861,9 +1586,7 @@
       <c r="E13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F13" t="s" s="47">
-        <v>139</v>
-      </c>
+      <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
@@ -2881,9 +1604,7 @@
       <c r="E14" s="4">
         <v>10</v>
       </c>
-      <c r="F14" t="s" s="49">
-        <v>139</v>
-      </c>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
@@ -2901,9 +1622,7 @@
       <c r="E15" s="4">
         <v>2</v>
       </c>
-      <c r="F15" t="s" s="51">
-        <v>139</v>
-      </c>
+      <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
@@ -2921,9 +1640,7 @@
       <c r="E16" s="4">
         <v>1</v>
       </c>
-      <c r="F16" t="s" s="53">
-        <v>139</v>
-      </c>
+      <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
@@ -2941,9 +1658,7 @@
       <c r="E17" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F17" t="s" s="55">
-        <v>139</v>
-      </c>
+      <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
@@ -2961,9 +1676,7 @@
       <c r="E18" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F18" t="s" s="57">
-        <v>139</v>
-      </c>
+      <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
@@ -2981,9 +1694,7 @@
       <c r="E19" s="4">
         <v>2</v>
       </c>
-      <c r="F19" t="s" s="59">
-        <v>139</v>
-      </c>
+      <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
@@ -3001,9 +1712,7 @@
       <c r="E20" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F20" t="s" s="61">
-        <v>139</v>
-      </c>
+      <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
@@ -3021,9 +1730,7 @@
       <c r="E21" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F21" t="s" s="63">
-        <v>139</v>
-      </c>
+      <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
@@ -3041,9 +1748,7 @@
       <c r="E22" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F22" t="s" s="65">
-        <v>139</v>
-      </c>
+      <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
@@ -3061,9 +1766,7 @@
       <c r="E23" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F23" t="s" s="67">
-        <v>139</v>
-      </c>
+      <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
@@ -3081,9 +1784,7 @@
       <c r="E24" s="4">
         <v>10</v>
       </c>
-      <c r="F24" t="s" s="69">
-        <v>139</v>
-      </c>
+      <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
@@ -3101,9 +1802,7 @@
       <c r="E25" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F25" t="s" s="71">
-        <v>139</v>
-      </c>
+      <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
@@ -3121,9 +1820,7 @@
       <c r="E26" s="4">
         <v>10</v>
       </c>
-      <c r="F26" t="s" s="73">
-        <v>139</v>
-      </c>
+      <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
@@ -3141,9 +1838,7 @@
       <c r="E27" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F27" t="s" s="75">
-        <v>139</v>
-      </c>
+      <c r="F27" s="4"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
@@ -3161,9 +1856,7 @@
       <c r="E28" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F28" t="s" s="77">
-        <v>139</v>
-      </c>
+      <c r="F28" s="4"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
@@ -3181,9 +1874,7 @@
       <c r="E29" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F29" t="s" s="79">
-        <v>139</v>
-      </c>
+      <c r="F29" s="4"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
@@ -3201,9 +1892,7 @@
       <c r="E30" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F30" t="s" s="81">
-        <v>139</v>
-      </c>
+      <c r="F30" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3264,9 +1953,7 @@
       <c r="E2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F2" t="s" s="83">
-        <v>139</v>
-      </c>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
@@ -3284,9 +1971,7 @@
       <c r="E3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F3" t="s" s="85">
-        <v>139</v>
-      </c>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
@@ -3304,9 +1989,7 @@
       <c r="E4" s="4">
         <v>10</v>
       </c>
-      <c r="F4" t="s" s="87">
-        <v>139</v>
-      </c>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
@@ -3324,9 +2007,7 @@
       <c r="E5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F5" t="s" s="89">
-        <v>139</v>
-      </c>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
@@ -3344,9 +2025,7 @@
       <c r="E6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F6" t="s" s="91">
-        <v>139</v>
-      </c>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
@@ -3364,9 +2043,7 @@
       <c r="E7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F7" t="s" s="93">
-        <v>139</v>
-      </c>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
@@ -3384,9 +2061,7 @@
       <c r="E8" s="4">
         <v>10</v>
       </c>
-      <c r="F8" t="s" s="95">
-        <v>139</v>
-      </c>
+      <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
@@ -3404,9 +2079,7 @@
       <c r="E9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F9" t="s" s="97">
-        <v>139</v>
-      </c>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
@@ -3424,9 +2097,7 @@
       <c r="E10" s="4">
         <v>10</v>
       </c>
-      <c r="F10" t="s" s="99">
-        <v>139</v>
-      </c>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
@@ -3444,9 +2115,7 @@
       <c r="E11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F11" t="s" s="101">
-        <v>139</v>
-      </c>
+      <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
@@ -3464,9 +2133,7 @@
       <c r="E12" s="4">
         <v>10</v>
       </c>
-      <c r="F12" t="s" s="103">
-        <v>139</v>
-      </c>
+      <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
@@ -3484,9 +2151,7 @@
       <c r="E13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F13" t="s" s="105">
-        <v>139</v>
-      </c>
+      <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
@@ -3504,9 +2169,7 @@
       <c r="E14" s="4">
         <v>10</v>
       </c>
-      <c r="F14" t="s" s="107">
-        <v>139</v>
-      </c>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
@@ -3524,9 +2187,7 @@
       <c r="E15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F15" t="s" s="109">
-        <v>139</v>
-      </c>
+      <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
@@ -3544,9 +2205,7 @@
       <c r="E16" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F16" t="s" s="111">
-        <v>139</v>
-      </c>
+      <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
@@ -3564,9 +2223,7 @@
       <c r="E17" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="F17" t="s" s="113">
-        <v>139</v>
-      </c>
+      <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
@@ -3584,9 +2241,7 @@
       <c r="E18" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="F18" t="s" s="115">
-        <v>139</v>
-      </c>
+      <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
@@ -3604,9 +2259,7 @@
       <c r="E19" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="F19" t="s" s="117">
-        <v>139</v>
-      </c>
+      <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
@@ -3624,9 +2277,7 @@
       <c r="E20" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="F20" t="s" s="119">
-        <v>139</v>
-      </c>
+      <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
@@ -3644,9 +2295,7 @@
       <c r="E21" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="F21" t="s" s="121">
-        <v>139</v>
-      </c>
+      <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
@@ -3664,9 +2313,7 @@
       <c r="E22" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="F22" t="s" s="123">
-        <v>139</v>
-      </c>
+      <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
@@ -3684,9 +2331,7 @@
       <c r="E23" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F23" t="s" s="125">
-        <v>139</v>
-      </c>
+      <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
@@ -3704,9 +2349,7 @@
       <c r="E24" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="F24" t="s" s="127">
-        <v>139</v>
-      </c>
+      <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
@@ -3724,9 +2367,7 @@
       <c r="E25" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F25" t="s" s="129">
-        <v>139</v>
-      </c>
+      <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
@@ -3744,9 +2385,7 @@
       <c r="E26" s="4">
         <v>10</v>
       </c>
-      <c r="F26" t="s" s="131">
-        <v>139</v>
-      </c>
+      <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
@@ -3764,9 +2403,7 @@
       <c r="E27" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F27" t="s" s="133">
-        <v>139</v>
-      </c>
+      <c r="F27" s="4"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
@@ -3784,9 +2421,7 @@
       <c r="E28" s="4">
         <v>10</v>
       </c>
-      <c r="F28" t="s" s="135">
-        <v>139</v>
-      </c>
+      <c r="F28" s="4"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
@@ -3804,9 +2439,7 @@
       <c r="E29" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F29" t="s" s="137">
-        <v>139</v>
-      </c>
+      <c r="F29" s="4"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
@@ -3824,9 +2457,7 @@
       <c r="E30" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F30" t="s" s="139">
-        <v>139</v>
-      </c>
+      <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
@@ -3844,9 +2475,7 @@
       <c r="E31" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F31" t="s" s="141">
-        <v>139</v>
-      </c>
+      <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
@@ -3864,9 +2493,7 @@
       <c r="E32" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F32" t="s" s="143">
-        <v>139</v>
-      </c>
+      <c r="F32" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3929,9 +2556,7 @@
       <c r="E2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F2" t="s" s="145">
-        <v>139</v>
-      </c>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
@@ -3949,9 +2574,7 @@
       <c r="E3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F3" t="s" s="147">
-        <v>139</v>
-      </c>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
@@ -3969,9 +2592,7 @@
       <c r="E4" s="4">
         <v>10</v>
       </c>
-      <c r="F4" t="s" s="149">
-        <v>139</v>
-      </c>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
@@ -3989,9 +2610,7 @@
       <c r="E5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F5" t="s" s="151">
-        <v>139</v>
-      </c>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
@@ -4009,9 +2628,7 @@
       <c r="E6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F6" t="s" s="153">
-        <v>139</v>
-      </c>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
@@ -4029,9 +2646,7 @@
       <c r="E7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F7" t="s" s="155">
-        <v>139</v>
-      </c>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
@@ -4049,9 +2664,7 @@
       <c r="E8" s="4">
         <v>10</v>
       </c>
-      <c r="F8" t="s" s="157">
-        <v>139</v>
-      </c>
+      <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
@@ -4069,9 +2682,7 @@
       <c r="E9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F9" t="s" s="159">
-        <v>139</v>
-      </c>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
@@ -4089,9 +2700,7 @@
       <c r="E10" s="4">
         <v>10</v>
       </c>
-      <c r="F10" t="s" s="161">
-        <v>139</v>
-      </c>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
@@ -4109,9 +2718,7 @@
       <c r="E11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F11" t="s" s="163">
-        <v>139</v>
-      </c>
+      <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
@@ -4129,9 +2736,7 @@
       <c r="E12" s="4">
         <v>10</v>
       </c>
-      <c r="F12" t="s" s="165">
-        <v>139</v>
-      </c>
+      <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
@@ -4149,9 +2754,7 @@
       <c r="E13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F13" t="s" s="167">
-        <v>139</v>
-      </c>
+      <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
@@ -4169,9 +2772,7 @@
       <c r="E14" s="4">
         <v>10</v>
       </c>
-      <c r="F14" t="s" s="169">
-        <v>139</v>
-      </c>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
@@ -4189,9 +2790,7 @@
       <c r="E15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F15" t="s" s="171">
-        <v>139</v>
-      </c>
+      <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
@@ -4209,9 +2808,7 @@
       <c r="E16" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="F16" t="s" s="173">
-        <v>139</v>
-      </c>
+      <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
@@ -4229,9 +2826,7 @@
       <c r="E17" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="F17" t="s" s="175">
-        <v>139</v>
-      </c>
+      <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
@@ -4249,9 +2844,7 @@
       <c r="E18" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="F18" t="s" s="177">
-        <v>139</v>
-      </c>
+      <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
@@ -4269,9 +2862,7 @@
       <c r="E19" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="F19" t="s" s="179">
-        <v>139</v>
-      </c>
+      <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
@@ -4289,9 +2880,7 @@
       <c r="E20" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="F20" t="s" s="181">
-        <v>139</v>
-      </c>
+      <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
@@ -4309,9 +2898,7 @@
       <c r="E21" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="F21" t="s" s="183">
-        <v>139</v>
-      </c>
+      <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
@@ -4329,9 +2916,7 @@
       <c r="E22" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="F22" t="s" s="185">
-        <v>139</v>
-      </c>
+      <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
@@ -4349,9 +2934,7 @@
       <c r="E23" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F23" t="s" s="187">
-        <v>139</v>
-      </c>
+      <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
@@ -4369,9 +2952,7 @@
       <c r="E24" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="F24" t="s" s="189">
-        <v>139</v>
-      </c>
+      <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
@@ -4389,9 +2970,7 @@
       <c r="E25" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F25" t="s" s="191">
-        <v>139</v>
-      </c>
+      <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
@@ -4409,9 +2988,7 @@
       <c r="E26" s="4">
         <v>10</v>
       </c>
-      <c r="F26" t="s" s="193">
-        <v>139</v>
-      </c>
+      <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
@@ -4429,9 +3006,7 @@
       <c r="E27" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F27" t="s" s="195">
-        <v>139</v>
-      </c>
+      <c r="F27" s="4"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
@@ -4449,9 +3024,7 @@
       <c r="E28" s="4">
         <v>10</v>
       </c>
-      <c r="F28" t="s" s="197">
-        <v>139</v>
-      </c>
+      <c r="F28" s="4"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
@@ -4469,9 +3042,7 @@
       <c r="E29" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F29" t="s" s="199">
-        <v>139</v>
-      </c>
+      <c r="F29" s="4"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
@@ -4489,9 +3060,7 @@
       <c r="E30" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F30" t="s" s="201">
-        <v>139</v>
-      </c>
+      <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
@@ -4509,9 +3078,7 @@
       <c r="E31" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F31" t="s" s="203">
-        <v>139</v>
-      </c>
+      <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
@@ -4529,9 +3096,7 @@
       <c r="E32" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F32" t="s" s="205">
-        <v>139</v>
-      </c>
+      <c r="F32" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/FileOutput/HybridResults.xlsx
+++ b/FileOutput/HybridResults.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="141">
   <si>
     <t>TCID</t>
   </si>
@@ -454,7 +454,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="86" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -617,7 +617,349 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="12"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
       <b val="true"/>
     </font>
     <font>
@@ -680,7 +1022,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -710,6 +1052,63 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1038,10 +1437,10 @@
         <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s" s="25">
-        <v>140</v>
+        <v>14</v>
+      </c>
+      <c r="D3" t="s" s="82">
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -1054,7 +1453,7 @@
       <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s" s="26">
+      <c r="D4" t="s" s="83">
         <v>140</v>
       </c>
     </row>
@@ -1068,7 +1467,7 @@
       <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s" s="27">
+      <c r="D5" t="s" s="84">
         <v>140</v>
       </c>
     </row>
@@ -1082,7 +1481,7 @@
       <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s" s="28">
+      <c r="D6" t="s" s="85">
         <v>140</v>
       </c>
     </row>
@@ -1388,7 +1787,9 @@
       <c r="E2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="4"/>
+      <c r="F2" t="s" s="25">
+        <v>139</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
@@ -1406,7 +1807,9 @@
       <c r="E3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="4"/>
+      <c r="F3" t="s" s="27">
+        <v>139</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
@@ -1424,7 +1827,9 @@
       <c r="E4" s="4">
         <v>10</v>
       </c>
-      <c r="F4" s="4"/>
+      <c r="F4" t="s" s="29">
+        <v>139</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
@@ -1442,7 +1847,9 @@
       <c r="E5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="4"/>
+      <c r="F5" t="s" s="31">
+        <v>139</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
@@ -1460,7 +1867,9 @@
       <c r="E6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="4"/>
+      <c r="F6" t="s" s="33">
+        <v>139</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
@@ -1478,7 +1887,9 @@
       <c r="E7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="4"/>
+      <c r="F7" t="s" s="35">
+        <v>139</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
@@ -1496,7 +1907,9 @@
       <c r="E8" s="4">
         <v>10</v>
       </c>
-      <c r="F8" s="4"/>
+      <c r="F8" t="s" s="37">
+        <v>139</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
@@ -1514,7 +1927,9 @@
       <c r="E9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="4"/>
+      <c r="F9" t="s" s="39">
+        <v>139</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
@@ -1532,7 +1947,9 @@
       <c r="E10" s="4">
         <v>10</v>
       </c>
-      <c r="F10" s="4"/>
+      <c r="F10" t="s" s="41">
+        <v>139</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
@@ -1550,7 +1967,9 @@
       <c r="E11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="4"/>
+      <c r="F11" t="s" s="43">
+        <v>139</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
@@ -1568,7 +1987,9 @@
       <c r="E12" s="4">
         <v>10</v>
       </c>
-      <c r="F12" s="4"/>
+      <c r="F12" t="s" s="45">
+        <v>139</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
@@ -1586,7 +2007,9 @@
       <c r="E13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="4"/>
+      <c r="F13" t="s" s="47">
+        <v>139</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
@@ -1604,7 +2027,9 @@
       <c r="E14" s="4">
         <v>10</v>
       </c>
-      <c r="F14" s="4"/>
+      <c r="F14" t="s" s="49">
+        <v>139</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
@@ -1622,7 +2047,9 @@
       <c r="E15" s="4">
         <v>2</v>
       </c>
-      <c r="F15" s="4"/>
+      <c r="F15" t="s" s="51">
+        <v>139</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
@@ -1640,7 +2067,9 @@
       <c r="E16" s="4">
         <v>1</v>
       </c>
-      <c r="F16" s="4"/>
+      <c r="F16" t="s" s="53">
+        <v>139</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
@@ -1658,7 +2087,9 @@
       <c r="E17" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="4"/>
+      <c r="F17" t="s" s="55">
+        <v>139</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
@@ -1676,7 +2107,9 @@
       <c r="E18" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F18" s="4"/>
+      <c r="F18" t="s" s="57">
+        <v>139</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
@@ -1694,7 +2127,9 @@
       <c r="E19" s="4">
         <v>2</v>
       </c>
-      <c r="F19" s="4"/>
+      <c r="F19" t="s" s="59">
+        <v>139</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
@@ -1712,7 +2147,9 @@
       <c r="E20" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F20" s="4"/>
+      <c r="F20" t="s" s="61">
+        <v>139</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
@@ -1730,7 +2167,9 @@
       <c r="E21" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F21" s="4"/>
+      <c r="F21" t="s" s="63">
+        <v>139</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
@@ -1748,7 +2187,9 @@
       <c r="E22" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F22" s="4"/>
+      <c r="F22" t="s" s="65">
+        <v>139</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
@@ -1766,7 +2207,9 @@
       <c r="E23" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F23" s="4"/>
+      <c r="F23" t="s" s="67">
+        <v>139</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
@@ -1784,7 +2227,9 @@
       <c r="E24" s="4">
         <v>10</v>
       </c>
-      <c r="F24" s="4"/>
+      <c r="F24" t="s" s="69">
+        <v>139</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
@@ -1802,7 +2247,9 @@
       <c r="E25" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F25" s="4"/>
+      <c r="F25" t="s" s="71">
+        <v>139</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
@@ -1820,7 +2267,9 @@
       <c r="E26" s="4">
         <v>10</v>
       </c>
-      <c r="F26" s="4"/>
+      <c r="F26" t="s" s="73">
+        <v>139</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
@@ -1838,7 +2287,9 @@
       <c r="E27" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F27" s="4"/>
+      <c r="F27" t="s" s="75">
+        <v>139</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
@@ -1856,7 +2307,9 @@
       <c r="E28" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F28" s="4"/>
+      <c r="F28" t="s" s="77">
+        <v>139</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
@@ -1874,7 +2327,9 @@
       <c r="E29" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="4"/>
+      <c r="F29" t="s" s="79">
+        <v>139</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
@@ -1892,7 +2347,9 @@
       <c r="E30" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F30" s="4"/>
+      <c r="F30" t="s" s="81">
+        <v>139</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
